--- a/Book.xlsx
+++ b/Book.xlsx
@@ -10627,7 +10627,7 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>334</v>
+        <v>694.2783680138032</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>334</v>
@@ -10676,18 +10676,18 @@
         <v/>
       </c>
       <c r="Q2" t="n">
-        <v>169.3150478363037</v>
+        <v>825.3511917591095</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[[[0, [19, 15, 6, 13, 16, 17, 1, 3, 10, 11, 4, 8, 5, 2, 20, 18, 14, 7]], [7, []], [5, [12, 9]], [3, []], [4, []], [1, []], [2, []], [6, []], [9, []], [8, []], [10, []], [11, []], [13, []], [17, []], [18, []], [19, []], [15, []], [16, []], [14, []], [12, []], [20, []]]], [[[5, [12, 9]]]]]</t>
+          <t>[[[[0, [5, 3, 4, 1, 2, 16, 19, 13, 29, 33, 43, 11, 46, 49, 26, 23, 22, 35]], [5, []], [3, []], [4, []], [1, []], [2, []], [6, [6, 8, 7, 10]], [7, []], [10, []], [11, []], [8, []], [9, [9, 14, 15, 18]], [12, [12, 17, 30, 34]], [14, []], [16, []], [15, []], [19, []], [18, []], [17, []], [13, []], [30, [42, 40, 44, 41]], [29, []], [34, []], [33, []], [37, [37, 36, 39, 38]], [35, []], [36, []], [39, []], [38, []], [32, [32, 31, 45, 50]], [31, []], [43, []], [42, []], [41, []], [40, []], [44, []], [45, []], [48, [48, 47, 24, 28]], [46, []], [47, []], [49, []], [50, []], [24, []], [25, [25, 27, 21, 20]], [27, []], [28, []], [26, []], [23, []], [22, []], [21, []], [20, []]]], [[[6, [6, 8, 7, 10]]], [[9, [9, 14, 15, 18]]], [[12, [12, 17, 30, 34]]], [[30, [42, 40, 44, 41]]], [[37, [37, 36, 39, 38]]], [[32, [32, 31, 45, 50]]], [[48, [48, 47, 24, 28]]], [[25, [25, 27, 21, 20]]]]]</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>30.2</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>10807.4</v>
